--- a/biology/Botanique/Dipteryx/Dipteryx.xlsx
+++ b/biology/Botanique/Dipteryx/Dipteryx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dipteryx  est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique centrale  et d'Amérique du Sud, qui comprend une dizaine d'espèces acceptées.    Ce sont des arbres qui se rencontrent dans les forêts pluviales tropicales, notamment les forêts riveraines et généralement non-inondées. 
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (30 novembre 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (30 novembre 2018) :
 Dipteryx alata Vogel
 Dipteryx lacunifera Ducke
 Dipteryx magnifica (Ducke) Ducke
@@ -553,7 +567,9 @@
           <t>Bois</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces arbres produisent un bois lourd (densité souvent supérieure à 1), d'une très bonne durabilité, commercialisé sous le nom de « Cumaru ».
 </t>
